--- a/CLOUD解决方案/分布式数据库中间件.xlsx
+++ b/CLOUD解决方案/分布式数据库中间件.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DDM 业务架构" sheetId="2" r:id="rId1"/>
     <sheet name="分布式数据库中间件DDM" sheetId="1" r:id="rId2"/>
     <sheet name="华为DDM使用注意" sheetId="3" r:id="rId3"/>
+    <sheet name="MyCAT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>单机数据库的现状与困境</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +451,98 @@
   <si>
     <t>数据量在1000万以上的表，建议分片。将数据分片存储后，既能解决单张表容量过大带来的性能瓶颈，同时提高并发支持。注意要选择合适的拆分键，提前做好规划。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个彻底开源的，面向企业应用开发的“大数据库集群”</t>
+  </si>
+  <si>
+    <t>支持事务、ACID、可以替代Mysql的加强版数据库</t>
+  </si>
+  <si>
+    <t>一个可以视为“Mysql”集群的企业级数据库，用来替代昂贵的Oracle集群</t>
+  </si>
+  <si>
+    <t>一个融合内存缓存技术、Nosql技术、HDFS大数据的新型SQL Server</t>
+  </si>
+  <si>
+    <t>结合传统数据库和新型分布式数据仓库的新一代企业级数据库产品</t>
+  </si>
+  <si>
+    <t>一个新颖的数据库中间件产品</t>
+  </si>
+  <si>
+    <t>MyCAT的目标是：低成本的将现有的单机数据库和应用平滑迁移到“云”端，解决数据存储和业务规模迅速增长情况下的数据瓶颈问题。</t>
+  </si>
+  <si>
+    <t>1.2. MyCAT的关键特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持 SQL 92标准</t>
+  </si>
+  <si>
+    <t>支持Mysql集群，可以作为Proxy使用</t>
+  </si>
+  <si>
+    <t>自动故障切换，高可用性</t>
+  </si>
+  <si>
+    <t>支持读写分离，支持Mysql双主多从，以及一主多从的模式</t>
+  </si>
+  <si>
+    <t>支持全局表，数据自动分片到多个节点，用于高效表关联查询</t>
+  </si>
+  <si>
+    <t>支持独有的基于E-R 关系的分片策略，实现了高效的表关联查询</t>
+  </si>
+  <si>
+    <t>多平台支持，部署和实施简单</t>
+  </si>
+  <si>
+    <t>支持JDBC连接ORACLE、DB2、SQL Server，将其模拟为MySQL  Server使用</t>
+  </si>
+  <si>
+    <t>支持galera formysql集群，percona-cluster或者mariadb cluster，提供高可用性数据分片集群</t>
+  </si>
+  <si>
+    <t>2.   Mycat解决的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1. 什么是MyCAT？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能问题</t>
+  </si>
+  <si>
+    <t>数据库连接过多</t>
+  </si>
+  <si>
+    <t>E-R分片难处理</t>
+  </si>
+  <si>
+    <t>可用性问题</t>
+  </si>
+  <si>
+    <t>成本和伸缩性问题</t>
+  </si>
+  <si>
+    <t>2.1. Mycat对多数据库的支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.   分片策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyCAT支持水平分片与垂直分片：</t>
+  </si>
+  <si>
+    <t>水平分片：一个表格的数据分割到多个节点上，按照行分隔。</t>
+  </si>
+  <si>
+    <t>垂直分片：一个数据库中多个表格A，B，C，A存储到节点1上，B存储到节点2上，C存储到节点3上。</t>
   </si>
 </sst>
 </file>
@@ -601,6 +694,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://img.blog.csdn.net/20170820220226141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8476B90-399C-4A0D-ABEC-5A35DBF84324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8505825"/>
+          <a:ext cx="5133975" cy="2057528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -892,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1375,4 +1534,173 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A38C7D4-B5E9-4143-BAC0-E995FBC47194}">
+  <dimension ref="A1:A66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>